--- a/Doc/Scénarios.xlsx
+++ b/Doc/Scénarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nolan/OneDrive - CPNV/1ere Année/CFC/ICT-431/Bataille Navale/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Apprentissage\1re annee\2e Trimestre\MA-20\Bataille_Navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_E72207FA8E5D3AFF6E4E5B8C3C8D4CFA43E3FC10" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5957190-9550-5B42-828F-9982A97B74DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5B468A-BCC1-4EE4-BACE-6CE94788D50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scénarios" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>Identifiant + Titre</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Les règles du jeu s'affichent</t>
   </si>
   <si>
-    <t>BTN02-Obtenir de l'aide pour s'enregistrer</t>
-  </si>
-  <si>
-    <t>M'enregistrer</t>
-  </si>
-  <si>
     <t>Aide Utilisateur</t>
   </si>
   <si>
@@ -90,27 +84,12 @@
     <t>Enregistrement utilisateur</t>
   </si>
   <si>
-    <t>La section d'enregistrement va s'aficher</t>
-  </si>
-  <si>
     <t>La saisie est dirigée dans ce champ</t>
   </si>
   <si>
     <t>Le champ se complète</t>
   </si>
   <si>
-    <t>Le nom entré n'est pas déjà enregistré</t>
-  </si>
-  <si>
-    <t>Affiche que le compte est enregistré</t>
-  </si>
-  <si>
-    <t>BTN03-s'enregistrer</t>
-  </si>
-  <si>
-    <t>Voir mes meilleurs scores</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tenter de faire mieux </t>
   </si>
   <si>
@@ -132,9 +111,6 @@
     <t>Je saisis le numéro correspondant aux règles du jeu</t>
   </si>
   <si>
-    <t>Je saisis le numéro correspondant à l'enregistrement des nouveaux utilisateurs dans le menu principal</t>
-  </si>
-  <si>
     <t>Je clique sur le champ "nom d'utilisateur"</t>
   </si>
   <si>
@@ -162,30 +138,12 @@
     <t>J'effectue un double-clic sur l'executable de l'application</t>
   </si>
   <si>
-    <t>Je saisi le numéro correspondant à la section des meilleurs scores</t>
-  </si>
-  <si>
-    <t>Une page de connexion s'affiche et demande un nom d'utilisateur</t>
-  </si>
-  <si>
-    <t>Je rentre mon nom d'utilisateur</t>
-  </si>
-  <si>
-    <t>le nom a été enregistré au préalable</t>
-  </si>
-  <si>
-    <t>le nom a été enregistré au préalable et l'utilisateur a déjà joué une partie</t>
-  </si>
-  <si>
     <t>Les meilleurs scores s'affichent</t>
   </si>
   <si>
     <t>Je prends connaissance de mes meilleurs scores</t>
   </si>
   <si>
-    <t>BTN04-obtenir ses meilleurs scores</t>
-  </si>
-  <si>
     <t>BTN05-jouer à la bataille navale</t>
   </si>
   <si>
@@ -201,15 +159,9 @@
     <t>Je rentre une cordonnée d'une case de la grille</t>
   </si>
   <si>
-    <t>Le programme affiche "touché"</t>
-  </si>
-  <si>
     <t>Aucun bateau se trouve sur cette case</t>
   </si>
   <si>
-    <t>Le programme affiche "à l'eau"</t>
-  </si>
-  <si>
     <t>Je rentre une autre cordonnée</t>
   </si>
   <si>
@@ -219,9 +171,6 @@
     <t>La dernière partie non-touchée d'un bateau se trouve sur cette case</t>
   </si>
   <si>
-    <t>Le programme affiche "coulé"</t>
-  </si>
-  <si>
     <t>Je continue à entrer des coordonnées</t>
   </si>
   <si>
@@ -237,13 +186,61 @@
     <t>Le programme affiche "gagné" et  le score en nombre de coups s'affiche</t>
   </si>
   <si>
-    <t>Obtention des meilleurs scores</t>
-  </si>
-  <si>
     <t>Jouer à la bataille navale</t>
   </si>
   <si>
     <t>Commencer une nouvelle partie et tenter de battre un éventuel record personnel précédent</t>
+  </si>
+  <si>
+    <t>BTN03-s'authentifier</t>
+  </si>
+  <si>
+    <t>BTN02-Obtenir de l'aide pour s'authentifier</t>
+  </si>
+  <si>
+    <t>M'authentifier</t>
+  </si>
+  <si>
+    <t>un nom d'utilisateur est demandé</t>
+  </si>
+  <si>
+    <t>Je saisis le numéro correspondant aux changement d'utilisateur</t>
+  </si>
+  <si>
+    <t>L'utilisateur souhaite changer son nom</t>
+  </si>
+  <si>
+    <t>La section d'enregistrement va s'afficher</t>
+  </si>
+  <si>
+    <t>Affiche que le nom a bien été modifé</t>
+  </si>
+  <si>
+    <t>Le nom entré correspnd aux conventions</t>
+  </si>
+  <si>
+    <t>Le programme affiche "touché", la case en question change d'état</t>
+  </si>
+  <si>
+    <t>Le programme affiche "à l'eau", la case change d'état</t>
+  </si>
+  <si>
+    <t>Le programme affiche "touché", la case change d'état</t>
+  </si>
+  <si>
+    <t>Le programme affiche "coulé", la case change d'état</t>
+  </si>
+  <si>
+    <t>Obtention des scores</t>
+  </si>
+  <si>
+    <t>BTN04-obtenir ses scores</t>
+  </si>
+  <si>
+    <t>Voir les scores</t>
+  </si>
+  <si>
+    <t>Je saisi le numéro correspondant à la section des scores</t>
   </si>
 </sst>
 </file>
@@ -294,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -378,11 +375,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -402,78 +410,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,30 +769,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -795,51 +811,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
-      <c r="D4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="32"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>33</v>
+      <c r="D6" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -847,14 +863,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,12 +878,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,22 +894,22 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
@@ -905,102 +921,94 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="D14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="D17" s="8"/>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="30"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
@@ -1012,358 +1020,345 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="D25" s="18" t="s">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="17"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="F49" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D50" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="25"/>
+      <c r="E51" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="25"/>
+      <c r="E52" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D54" s="20"/>
+      <c r="E54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="21"/>
-      <c r="D39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="D48" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="D49" s="24"/>
-      <c r="E49" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="D50" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="D51" s="24"/>
-      <c r="E51" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="D52" s="24"/>
-      <c r="E52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="D53" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="D54" s="28"/>
-      <c r="E54" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E55" s="29"/>
-      <c r="F55" s="22"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D52"/>
+  <mergeCells count="12">
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
